--- a/Hardware/TOP/ESP32/BOM.xlsx
+++ b/Hardware/TOP/ESP32/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RX5808-Div\RX5808-Div\Hardware\TOP\ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E4EE69-6BD0-4C10-B208-E6077B21535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F10AA-3DA1-4B07-8370-FF54BABA76DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RX5808_TOP" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -141,13 +138,7 @@
     <t>10K</t>
   </si>
   <si>
-    <t>R3, R5, R7, R9, R10, R11, R12, R14, R16, R18, R19, R20</t>
-  </si>
-  <si>
     <t>1K</t>
-  </si>
-  <si>
-    <t>R4, R13, R17</t>
   </si>
   <si>
     <t>12K</t>
@@ -436,15 +427,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C7, C8, C9, C10,  C12, C13, C14, C15, C16, C17, C18, C19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10nf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5, C7, C8, C9, C10,  C12, C13, C14,  C17, C18, C19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2pf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5pf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4, R17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R3, R5, R7, R9, R10, R11, R12, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R13, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+      </rPr>
+      <t>R14, R16, R18, R19, R20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -616,6 +665,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -935,10 +987,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -951,56 +1003,56 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="8">
         <v>17</v>
@@ -1008,19 +1060,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
@@ -1028,79 +1080,79 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -1108,19 +1160,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -1128,199 +1180,199 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F10" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F11" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F12" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="8">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F19" s="8">
         <v>1</v>
@@ -1328,101 +1380,141 @@
     </row>
     <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="E23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="B25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="C26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="F26" s="8">
         <v>1</v>
       </c>
     </row>

--- a/Hardware/TOP/ESP32/BOM.xlsx
+++ b/Hardware/TOP/ESP32/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RX5808-Div\RX5808-Div\Hardware\TOP\ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F10AA-3DA1-4B07-8370-FF54BABA76DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B1CA01-16E4-4D59-B98C-956F9B5E10DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,19 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>C10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>0603</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,6 +481,10 @@
   </si>
   <si>
     <t>模拟开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -990,7 +981,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1046,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>81</v>
@@ -1060,16 +1051,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>8</v>
@@ -1080,16 +1071,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
@@ -1286,7 +1277,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>81</v>
@@ -1306,7 +1297,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>81</v>
@@ -1443,7 +1434,7 @@
         <v>77</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>52</v>
